--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45645</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>45988</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45160</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45849.57523148148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45904</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44621.78134259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45846</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45539.59673611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>45282</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45733</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45840.48475694445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45400.64700231481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>44791.65466435185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45839.53917824074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45534.33709490741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>45314</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44453.79184027778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45456.60729166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44993</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44265.81850694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44824</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45091</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45106</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45405.47848379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45250</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>45022</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>45534</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45757.58759259259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>44379.43670138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45455.63559027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44854</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44827</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>45364.79518518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44379.43670138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44791</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45922.33814814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45937.67092592592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44876.54432870371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45463.63111111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>45979</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>46000.37792824074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45538.60297453704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>46055.80600694445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45086</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45350.52813657407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45086</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45405.40247685185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45646.54944444444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44511.63819444444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44753.34430555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44264.30541666667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44537</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44604.7769212963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44487</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44824.69974537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44651</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44690</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44365</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44698</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44461</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44865.48043981481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44634</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44865.44211805556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44459.56368055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44546</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44606</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44537</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>44869.80046296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44253</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44595</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>44882.67111111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44426</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44361</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44475</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44827</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>44511.6225462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>44820</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>44874.78201388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>44865.47458333334</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>44621</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>44874.77633101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44389</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>44593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>44722</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45250</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45359</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44537.49385416666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45114</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44727</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45459.67179398148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45540.63810185185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45152</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>45161</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>45057</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45132</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45686.62033564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44621.39148148148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>45106</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>44802.30116898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45028</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45540.31905092593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45553.44331018518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45569</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>45540.31068287037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>45540.33099537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44371</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>45539.64475694444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45540.34068287037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>45540.34633101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45355.36631944445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44803.62930555556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44335</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44874.7847337963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45209</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44981</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45568.64324074074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45701.45549768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45800.57025462963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45805</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45805.44922453703</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45805.42946759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45805.43984953704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44511</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45895.47384259259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44928</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45831.40432870371</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44806.50565972222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45628.51412037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45477.59359953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45901.54518518518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45162.45815972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45903.50716435185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45902.92253472222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44817</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45903.35640046297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44974</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45819.94459490741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45904.37453703704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45097.65108796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45911.51435185185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45274.62921296297</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45911.43789351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45764.41733796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45764.42305555556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44813</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45364</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45188</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45832.51099537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>45097</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45833.44520833333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>44922</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44817</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45929.57331018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44638</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45834.36774305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45274.61356481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44411</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45929.51736111111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45764.35086805555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44361</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45540.6293287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45840.48699074074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45091</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44865.48206018518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45405.40068287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45763.6754050926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45786.51432870371</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45849.4249537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45849.57783564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45849.59052083334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45852.43928240741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45950</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>45862.62900462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45862.65146990741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45151.96359953703</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45638.61381944444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44972.57466435185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44595</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44991.52763888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>45874.63407407407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>45961.62152777778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>45876.57542824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45876.53809027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45279</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44904</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45961.67008101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44904</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45880.39017361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45881.3720949074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45964</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45238</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45085</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45068.62135416667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44455</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45978.69263888889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45978.69001157407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45596.63148148148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45979</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45329</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45330.82181712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45631.59407407408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45399.58237268519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>46029.71084490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45987</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44600</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45987</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45987</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45274.63337962963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45216</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44904</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>45314</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>45988.62892361111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45713.53284722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44441</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45992.3603125</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45597.52</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44981</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45272</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45184</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45314</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45992.36092592592</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45092</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45991</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45537.60454861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45994.5534375</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44621.78886574074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44939</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>45182.57427083333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45086</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45278.43667824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45538.59396990741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>46043.56958333333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>46043.57333333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>45404.50043981482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>45999.85106481481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>46043.60792824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>45999.84604166666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45999.84915509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45999.85559027778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>45015</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44820</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>46001.60682870371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44806</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45639.59788194444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>46048.47035879629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>46048.47354166667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45113</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>46048.46054398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>46048.46538194444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45013.63350694445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45764.40966435185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44897.59982638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>46050.4659837963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>46050.47627314815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>46009.3715162037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44979.68982638889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>46050.43127314815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>45085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>46009.35513888889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>46050.48417824074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>46009.38640046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44802</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45537.5820949074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45538.60950231482</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45538.63414351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44285.72333333334</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45271.4174537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>46055.79810185185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>46055.80803240741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45764.33587962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45015</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45086</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45086</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44931</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45738.34930555556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45738.36251157407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>45169</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>45611.31045138889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>45274</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>44875</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45022</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45674.6674537037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>45686.61859953704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>44915.53012731481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44915.53577546297</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45139</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44817</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44923</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44917</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44869.57064814815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45575.56173611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45685.62289351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44537.56964120371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45218</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45574.45234953704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45560</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>45708.60461805556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>45400.75738425926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44904</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>45280.45199074074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44950.46746527778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45575.55944444444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45188</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44827</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45251.73802083333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44966.45128472222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44869.80395833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45350.59567129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44713.41929398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45155</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45182</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45540.35737268518</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45188</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44741.40471064814</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>45321.55706018519</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45251</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44923</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44939</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45323.6571875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45218</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45538.62778935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45558.7166087963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44872</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>45645.44524305555</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>45106</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24537,7 +24537,7 @@
         <v>44756.64633101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>45764.62177083334</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>45145.52805555556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44931</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>45152.50440972222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44643</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45238</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45054.52478009259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45769.54015046296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45747.92075231481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45328</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>44915</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45015</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>45434.65105324074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45776</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45715.32221064815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45670.65835648148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45711.74442129629</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45560.55587962963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45649.39033564815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45537.57107638889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>45714.51229166667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45649.39400462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45790.61526620371</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45708.46113425926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45792.59854166667</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45792.42443287037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45645</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>45988</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45160</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45849.57523148148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45904</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44621.78134259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45846</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45539.59673611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>45282</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45733</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45840.48475694445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45400.64700231481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>44791.65466435185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45839.53917824074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45534.33709490741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>45314</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44453.79184027778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45456.60729166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44993</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44265.81850694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44824</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45091</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45106</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45405.47848379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45250</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>45022</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>45534</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45757.58759259259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>44379.43670138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45455.63559027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44854</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44827</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>45364.79518518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44379.43670138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44791</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45922.33814814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45937.67092592592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44876.54432870371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45463.63111111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>45979</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>46000.37792824074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45538.60297453704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>46055.80600694445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45086</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45350.52813657407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45086</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45405.40247685185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45646.54944444444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44511.63819444444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44753.34430555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44264.30541666667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44537</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44604.7769212963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44487</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44824.69974537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44651</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44690</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44365</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44698</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44461</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44865.48043981481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44634</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44865.44211805556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44459.56368055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44546</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44606</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44537</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>44869.80046296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44253</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44595</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>44882.67111111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44426</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44361</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44475</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44827</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>44511.6225462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>44820</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>44874.78201388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>44865.47458333334</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>44621</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>44874.77633101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44389</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>44593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>44722</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45250</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45359</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44537.49385416666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45114</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44727</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45459.67179398148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45540.63810185185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45152</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>45161</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>45057</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45132</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45686.62033564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44621.39148148148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>45106</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>44802.30116898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45028</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45540.31905092593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45553.44331018518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45569</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>45540.31068287037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>45540.33099537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44371</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>45539.64475694444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45540.34068287037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>45540.34633101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45355.36631944445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44803.62930555556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44335</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44874.7847337963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45209</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44981</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45568.64324074074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45701.45549768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45800.57025462963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45805</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45805.44922453703</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45805.42946759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45805.43984953704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44511</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45895.47384259259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44928</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45831.40432870371</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44806.50565972222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45628.51412037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45477.59359953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45901.54518518518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45162.45815972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45903.50716435185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45902.92253472222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44817</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45903.35640046297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44974</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45819.94459490741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45904.37453703704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45097.65108796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45911.51435185185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45274.62921296297</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45911.43789351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45764.41733796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45764.42305555556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44813</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45364</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45188</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45832.51099537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>45097</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45833.44520833333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>44922</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44817</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45929.57331018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44638</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45834.36774305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45274.61356481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44411</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45929.51736111111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45764.35086805555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44361</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45540.6293287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45840.48699074074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45091</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44865.48206018518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45405.40068287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45763.6754050926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45786.51432870371</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45849.4249537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45849.57783564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45849.59052083334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45852.43928240741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45950</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>45862.62900462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45862.65146990741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45151.96359953703</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45638.61381944444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44972.57466435185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44595</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44991.52763888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>45874.63407407407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>45961.62152777778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>45876.57542824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45876.53809027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45279</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44904</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45961.67008101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44904</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45880.39017361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45881.3720949074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45964</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45238</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45085</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45068.62135416667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44455</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45978.69263888889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45978.69001157407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45596.63148148148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45979</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45329</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45330.82181712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45631.59407407408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45399.58237268519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>46029.71084490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45987</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44600</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45987</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45987</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45274.63337962963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45216</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44904</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>45314</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>45988.62892361111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45713.53284722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44441</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45992.3603125</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45597.52</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44981</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45272</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45184</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45314</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45992.36092592592</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45092</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45991</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45537.60454861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45994.5534375</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44621.78886574074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44939</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>45182.57427083333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45086</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45278.43667824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45538.59396990741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>46043.56958333333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>46043.57333333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>45404.50043981482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>45999.85106481481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>46043.60792824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>45999.84604166666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45999.84915509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45999.85559027778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>45015</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44820</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>46001.60682870371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44806</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45639.59788194444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>46048.47035879629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>46048.47354166667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45113</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>46048.46054398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>46048.46538194444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45013.63350694445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45764.40966435185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44897.59982638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>46050.4659837963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>46050.47627314815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>46009.3715162037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44979.68982638889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>46050.43127314815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>45085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>46009.35513888889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>46050.48417824074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>46009.38640046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44802</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45537.5820949074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45538.60950231482</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45538.63414351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44285.72333333334</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45271.4174537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>46055.79810185185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>46055.80803240741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45764.33587962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45015</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45086</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45086</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44931</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45738.34930555556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45738.36251157407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>45169</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>45611.31045138889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>45274</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>44875</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45022</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45674.6674537037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>45686.61859953704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>44915.53012731481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44915.53577546297</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45139</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44817</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44923</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44917</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44869.57064814815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45575.56173611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45685.62289351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44537.56964120371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45218</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45574.45234953704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45560</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>45708.60461805556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>45400.75738425926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44904</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>45280.45199074074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44950.46746527778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45575.55944444444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45188</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44827</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45251.73802083333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44966.45128472222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44869.80395833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45350.59567129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44713.41929398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45155</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45182</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45540.35737268518</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45188</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44741.40471064814</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45152</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>45321.55706018519</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45251</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44923</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44939</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45323.6571875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45218</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45538.62778935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45558.7166087963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44872</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>45645.44524305555</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>45106</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24537,7 +24537,7 @@
         <v>44756.64633101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>45764.62177083334</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>45145.52805555556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44931</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>45152.50440972222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44643</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45238</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45054.52478009259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45769.54015046296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45747.92075231481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45328</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>44915</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45015</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>45434.65105324074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45776</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45715.32221064815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45670.65835648148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45711.74442129629</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45560.55587962963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45649.39033564815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45537.57107638889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>45714.51229166667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45649.39400462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45790.61526620371</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45708.46113425926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45792.59854166667</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45792.42443287037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44424</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45645</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>45988</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45160</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45846</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45849.57523148148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44621.78134259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45904</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45539.59673611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45282</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45840.48475694445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45400.64700231481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44446</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44791.65466435185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>45839.53917824074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45534.33709490741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45314</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44453.79184027778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>45456.60729166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44993</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44265.81850694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44824</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>45091</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45106</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>45405.47848379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>45558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45250</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>45022</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>45534</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>45757.58759259259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44379.43670138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45455.63559027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>44854</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>44827</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>45364.79518518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>44379.43670138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44791</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44886</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45922.33814814815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>45937.67092592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>44876.54432870371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45463.63111111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45979</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>46000.37792824074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45538.60297453704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45086</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>46055.80600694445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45350.52813657407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45086</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45405.40247685185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45646.54944444444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44511.63819444444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44799</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44753.34430555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44264.30541666667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44537</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44604.7769212963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44487</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44824.69974537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44651</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44690</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44365</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44698</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44461</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44865.48043981481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44634</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44865.44211805556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44459.56368055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44546</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44606</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44537</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44869.80046296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>44253</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>44517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44882.67111111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44595</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44426</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44361</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44475</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44573</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44827</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44511.6225462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44820</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44865.47458333334</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44874.78201388889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44621</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44874.77633101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44389</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44642</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>44455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44722</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45250</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44537.49385416666</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>45540.63810185185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>45114</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44727</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45359</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>45057</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>45459.67179398148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>45161</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>45132</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>45152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>45686.62033564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44621.39148148148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>45106</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>45028</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44802.30116898148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>45540.31905092593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>45553.44331018518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>45540.31068287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45540.33099537037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45569</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45539.64475694444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45540.34068287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45540.34633101852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>45355.36631944445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44803.62930555556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44981</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45209</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44874.7847337963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45568.64324074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>45441</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>44511</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>44922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44928</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44806.50565972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>45477.59359953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45162.45815972222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45819.94459490741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44974</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>45015</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>45008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45895.47384259259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45097.65108796296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45831.40432870371</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45832.51099537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45274.62921296297</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45833.44520833333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45628.51412037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45764.41733796296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45764.42305555556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44813</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45901.54518518518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45834.36774305555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45364</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45903.50716435185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45902.92253472222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45903.35640046297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45188</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45097</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45904.37453703704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45840.48699074074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45911.51435185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44922</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45763.6754050926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45911.43789351852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45786.51432870371</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44638</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45274.61356481481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44411</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45849.4249537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45849.57783564815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45849.59052083334</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45852.43928240741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>45764.35086805555</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45540.6293287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44917</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45862.62900462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45862.65146990741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45091</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44865.48206018518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45929.57331018519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45929.51736111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45405.40068287037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45874.63407407407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45876.57542824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45876.53809027778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45880.39017361111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45881.3720949074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45151.96359953703</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45638.61381944444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44455</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44972.57466435185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44595</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44991.52763888889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45950</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45950</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44904</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44904</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45238</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45085</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45961.62152777778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45068.62135416667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45961.67008101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>45964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45596.63148148148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45329</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45330.82181712963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45631.59407407408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45399.58237268519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45274.63337962963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45978.69263888889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45216</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45978.69001157407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44904</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45314</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45713.53284722222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44441</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45597.52</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44981</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45272</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45184</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45034</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45314</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45987</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45987</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45987</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45092</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45988.62892361111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>44593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45992.3603125</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45537.60454861111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45992.36092592592</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44621.78886574074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45991</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45182.57427083333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45086</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45278.43667824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45994.5534375</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>45538.59396990741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45994</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45404.50043981482</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45015</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>46043.56958333333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>46043.57333333333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44820</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45999.85106481481</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>46043.60792824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45999.84604166666</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>45999.84915509259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>45999.85559027778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>46001.60682870371</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44806</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45639.59788194444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>45113</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45013.63350694445</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>45764.40966435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>46048.47035879629</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>46048.47354166667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44897.59982638889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44979.68982638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45085</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>46048.46054398148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>46048.46538194444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44802</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>46050.4659837963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>46050.47627314815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>46009.3715162037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>46050.43127314815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45537.5820949074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>46009.35513888889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>46050.48417824074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>46009.38640046296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>45538.60950231482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45538.63414351852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44285.72333333334</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45271.4174537037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45764.33587962963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>45015</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>45086</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>45738.34930555556</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>45738.36251157407</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>45169</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>46055.79810185185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>46055.80803240741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45611.31045138889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45274</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45015</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45022</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45674.6674537037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45686.61859953704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44915.53012731481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44915.53577546297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>45139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44817</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44917</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44869.57064814815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>45575.56173611111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>46069.74379629629</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45685.62289351852</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44537.56964120371</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45218</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45574.45234953704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>45560</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>46029.71084490741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>45708.60461805556</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>45400.75738425926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>46072.57795138889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44904</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45280.45199074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>45075</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44950.46746527778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>45575.55944444444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>45188</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>45089</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>45251.73802083333</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44966.45128472222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44869.80395833333</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45350.59567129629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44713.41929398148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45155</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45182</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45540.35737268518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44741.40471064814</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45152</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>45321.55706018519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45251</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44923</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44939</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>45323.6571875</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44739</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45218</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45538.62778935185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45558.7166087963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44872</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45645.44524305555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45106</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44756.64633101852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         <v>45764.62177083334</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>45145.52805555556</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
         <v>44931</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>45152.50440972222</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45022</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44643</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45238</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45054.52478009259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45188</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45769.54015046296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45747.92075231481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>45328</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>44915</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45015</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45434.65105324074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45776</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45715.32221064815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45670.65835648148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45711.74442129629</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45560.55587962963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45649.39033564815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45537.57107638889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45714.51229166667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45649.39400462963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45790.61526620371</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45708.46113425926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45792.59854166667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45792.42443287037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44335</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45701.45549768519</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45800.57025462963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45805</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45805.44922453703</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45805.42946759259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45805.43984953704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
